--- a/Execution4.xlsx
+++ b/Execution4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Partklar</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Speedup</t>
+  </si>
+  <si>
+    <t>N*P</t>
   </si>
 </sst>
 </file>
@@ -257,11 +260,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="214368872"/>
-        <c:axId val="214375800"/>
+        <c:axId val="663748616"/>
+        <c:axId val="189392904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="214368872"/>
+        <c:axId val="663748616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -289,7 +292,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214375800"/>
+        <c:crossAx val="189392904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -297,7 +300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214375800"/>
+        <c:axId val="189392904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -327,7 +330,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214368872"/>
+        <c:crossAx val="663748616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -577,11 +580,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="214442824"/>
-        <c:axId val="214448584"/>
+        <c:axId val="663816104"/>
+        <c:axId val="191843256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="214442824"/>
+        <c:axId val="663816104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,7 +618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214448584"/>
+        <c:crossAx val="191843256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -623,7 +626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214448584"/>
+        <c:axId val="191843256"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -654,7 +657,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214442824"/>
+        <c:crossAx val="663816104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -772,11 +775,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="179972648"/>
-        <c:axId val="182037288"/>
+        <c:axId val="185279576"/>
+        <c:axId val="185714040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="179972648"/>
+        <c:axId val="185279576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,7 +808,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182037288"/>
+        <c:crossAx val="185714040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -813,7 +816,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182037288"/>
+        <c:axId val="185714040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +846,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179972648"/>
+        <c:crossAx val="185279576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -946,11 +949,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="185267480"/>
-        <c:axId val="185720616"/>
+        <c:axId val="185464984"/>
+        <c:axId val="191293544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185267480"/>
+        <c:axId val="185464984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -987,7 +990,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185720616"/>
+        <c:crossAx val="191293544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -995,7 +998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185720616"/>
+        <c:axId val="191293544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,7 +1028,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185267480"/>
+        <c:crossAx val="185464984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1128,11 +1131,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="176322936"/>
-        <c:axId val="192910552"/>
+        <c:axId val="185402456"/>
+        <c:axId val="639825672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="176322936"/>
+        <c:axId val="185402456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1169,7 +1172,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192910552"/>
+        <c:crossAx val="639825672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1177,7 +1180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192910552"/>
+        <c:axId val="639825672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1207,7 +1210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176322936"/>
+        <c:crossAx val="185402456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1704,7 +1707,7 @@
   <dimension ref="B1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1743,6 +1746,9 @@
       <c r="K1" t="s">
         <v>6</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
       <c r="M1" t="s">
         <v>8</v>
       </c>
@@ -1781,6 +1787,9 @@
       <c r="K2" s="2">
         <v>2000</v>
       </c>
+      <c r="L2" s="2">
+        <v>2000</v>
+      </c>
       <c r="M2">
         <v>3.6660999999999999E-2</v>
       </c>
@@ -1819,6 +1828,9 @@
       <c r="K3">
         <v>4000</v>
       </c>
+      <c r="L3">
+        <v>8000</v>
+      </c>
       <c r="M3">
         <v>3.1781999999999998E-2</v>
       </c>
@@ -1857,6 +1869,9 @@
       <c r="K4">
         <v>8000</v>
       </c>
+      <c r="L4">
+        <v>32000</v>
+      </c>
       <c r="M4">
         <v>2.7437E-2</v>
       </c>
@@ -1895,6 +1910,9 @@
       <c r="K5">
         <v>12000</v>
       </c>
+      <c r="L5">
+        <v>72000</v>
+      </c>
       <c r="M5">
         <v>2.3233E-2</v>
       </c>
@@ -1932,6 +1950,9 @@
       </c>
       <c r="K6">
         <v>16000</v>
+      </c>
+      <c r="L6">
+        <v>128000</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -1992,7 +2013,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Execution4.xlsx
+++ b/Execution4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7600" yWindow="180" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="7400" yWindow="0" windowWidth="24200" windowHeight="17420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Partklar</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Tid 16</t>
-  </si>
-  <si>
-    <t>Tid 2 Scaled</t>
   </si>
   <si>
     <t>Partiklar</t>
@@ -55,6 +52,15 @@
   </si>
   <si>
     <t>N*P</t>
+  </si>
+  <si>
+    <t>Scaled</t>
+  </si>
+  <si>
+    <t>Kärnor</t>
+  </si>
+  <si>
+    <t>Exekveringstid</t>
   </si>
 </sst>
 </file>
@@ -107,8 +113,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -121,13 +141,27 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -741,7 +775,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:f>Sheet1!$Q$2:$Q$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -891,7 +925,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$6</c:f>
+              <c:f>Sheet1!$J$2:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -915,7 +949,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$6</c:f>
+              <c:f>Sheet1!$K$2:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1223,6 +1257,180 @@
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.86635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.83597</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.66449</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="186378088"/>
+        <c:axId val="663961272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="186378088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>N*P</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="663961272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="663961272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Scaled speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186378088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1374,6 +1582,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1704,10 +1942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O17"/>
+  <dimension ref="B1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K6" sqref="I1:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1716,11 +1954,12 @@
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="9" max="9" width="17.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15">
+    <row r="1" spans="2:17">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1738,28 +1977,34 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
       </c>
       <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="2:15">
+    <row r="2" spans="2:17">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1779,13 +2024,13 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>159.6078</v>
-      </c>
-      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="K2">
         <v>2.4763000000000002</v>
-      </c>
-      <c r="K2" s="2">
-        <v>2000</v>
       </c>
       <c r="L2" s="2">
         <v>2000</v>
@@ -1799,8 +2044,14 @@
       <c r="O2">
         <v>40000</v>
       </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>159.6078</v>
+      </c>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:17">
       <c r="B3">
         <v>3.98</v>
       </c>
@@ -1820,13 +2071,13 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>39.935200000000002</v>
+        <v>2</v>
       </c>
       <c r="J3">
+        <v>4000</v>
+      </c>
+      <c r="K3">
         <v>2.5276999999999998</v>
-      </c>
-      <c r="K3">
-        <v>4000</v>
       </c>
       <c r="L3">
         <v>8000</v>
@@ -1840,8 +2091,14 @@
       <c r="O3">
         <v>20000</v>
       </c>
+      <c r="P3">
+        <v>1.9593</v>
+      </c>
+      <c r="Q3">
+        <v>39.935200000000002</v>
+      </c>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:17">
       <c r="B4">
         <v>15.74</v>
       </c>
@@ -1861,13 +2118,13 @@
         <v>4</v>
       </c>
       <c r="I4">
-        <v>10.1585</v>
+        <v>4</v>
       </c>
       <c r="J4">
+        <v>8000</v>
+      </c>
+      <c r="K4">
         <v>2.5619000000000001</v>
-      </c>
-      <c r="K4">
-        <v>8000</v>
       </c>
       <c r="L4">
         <v>32000</v>
@@ -1881,8 +2138,14 @@
       <c r="O4">
         <v>10000</v>
       </c>
+      <c r="P4">
+        <v>3.8663500000000002</v>
+      </c>
+      <c r="Q4">
+        <v>10.1585</v>
+      </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:17">
       <c r="B5">
         <v>35.619999999999997</v>
       </c>
@@ -1902,13 +2165,13 @@
         <v>6</v>
       </c>
       <c r="I5">
-        <v>4.4640000000000004</v>
+        <v>6</v>
       </c>
       <c r="J5">
+        <v>12000</v>
+      </c>
+      <c r="K5">
         <v>2.5459000000000001</v>
-      </c>
-      <c r="K5">
-        <v>12000</v>
       </c>
       <c r="L5">
         <v>72000</v>
@@ -1922,8 +2185,14 @@
       <c r="O5">
         <v>5000</v>
       </c>
+      <c r="P5">
+        <v>5.8359699999999997</v>
+      </c>
+      <c r="Q5">
+        <v>4.4640000000000004</v>
+      </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:17">
       <c r="B6">
         <v>63</v>
       </c>
@@ -1943,19 +2212,25 @@
         <v>8</v>
       </c>
       <c r="I6">
-        <v>2.5238</v>
+        <v>8</v>
       </c>
       <c r="J6">
+        <v>16000</v>
+      </c>
+      <c r="K6">
         <v>2.5847000000000002</v>
-      </c>
-      <c r="K6">
-        <v>16000</v>
       </c>
       <c r="L6">
         <v>128000</v>
       </c>
+      <c r="P6">
+        <v>7.6644899999999998</v>
+      </c>
+      <c r="Q6">
+        <v>2.5238</v>
+      </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:17">
       <c r="D7">
         <v>100000</v>
       </c>
@@ -1969,41 +2244,41 @@
         <v>61.300899999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:17">
       <c r="E8" s="1"/>
       <c r="F8" s="1">
         <v>862.29499999999996</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:17">
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:17">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:17">
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:17">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:17">
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:17">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:17">
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:17">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
@@ -2013,6 +2288,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
